--- a/biology/Zoologie/Ctenophryne/Ctenophryne.xlsx
+++ b/biology/Zoologie/Ctenophryne/Ctenophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophryne  est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophryne  est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 6 espèces de ce genre se rencontrent au Costa Rica, au Panama et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 6 espèces de ce genre se rencontrent au Costa Rica, au Panama et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 juin 2014) :
 Ctenophryne aequatorialis (Peracca, 1904)
 Ctenophryne aterrima (Günther, 1901)
 Ctenophryne barbatula (Lehr &amp; Trueb, 2007)
@@ -578,7 +594,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre,  du grec Κτενός, cteno, « peigne », et φρύνηος, phrynos, « crapaud », a été choisi en référence à la forme de peigne que présente le repli transversal de la muqueuse sur la voûte pharyngienne à l'entrée de l'œsophage.
 </t>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Frost, 1987 : A Replacement Name for Glossostoma Günther, 1900 (Anura: Microhylidae). Copeia, vol. 1987, no 4, p. 1025.
 Lehr &amp; Trueb, 2007 : Diversity among New World microhylid frogs (Anura: Microhylidae): morphological and osteological comparisons between Nelsonophryne (Günther 1901) and a new genus from Peru. Zoological Journal of the Linnean Society, vol. 149, p. 583-609 (texte intégral).
